--- a/Cleaned-Data/2015-Passouts/Sem-5_2015_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2015-Passouts/Sem-5_2015_Passout_cleaned.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Downloads/Student-Placement-Guidance/Cleaned-Data/2015-Passouts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24600" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sem-5_2015_Passout_cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1057,8 +1070,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,6 +1134,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1167,12 +1185,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1199,14 +1217,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1233,6 +1252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1408,14 +1428,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,9 +1593,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>235201</v>
@@ -1599,9 +1661,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>235202</v>
@@ -1667,9 +1729,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>235203</v>
@@ -1735,9 +1797,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>235204</v>
@@ -1803,9 +1865,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>235205</v>
@@ -1919,9 +1981,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>235206</v>
@@ -2035,9 +2097,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>235207</v>
@@ -2151,9 +2213,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>235208</v>
@@ -2219,9 +2281,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>235209</v>
@@ -2287,9 +2349,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>235210</v>
@@ -2355,9 +2417,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>235211</v>
@@ -2423,9 +2485,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>235212</v>
@@ -2491,9 +2553,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>235213</v>
@@ -2607,9 +2669,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>235214</v>
@@ -2675,9 +2737,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>235215</v>
@@ -2743,9 +2805,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>235216</v>
@@ -2811,9 +2873,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>235217</v>
@@ -2927,9 +2989,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>235218</v>
@@ -2995,9 +3057,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>235219</v>
@@ -3063,9 +3125,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>235220</v>
@@ -3179,9 +3241,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>235221</v>
@@ -3247,9 +3309,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>235222</v>
@@ -3315,9 +3377,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>235223</v>
@@ -3383,9 +3445,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>235224</v>
@@ -3451,9 +3513,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>235225</v>
@@ -3519,9 +3581,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>235226</v>
@@ -3587,9 +3649,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>235227</v>
@@ -3703,9 +3765,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>235228</v>
@@ -3819,9 +3881,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>235229</v>
@@ -3887,9 +3949,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>235230</v>
@@ -3955,9 +4017,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>235231</v>
@@ -4023,9 +4085,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>235232</v>
@@ -4091,9 +4153,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>235233</v>
@@ -4159,9 +4221,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>235234</v>
@@ -4227,9 +4289,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>235235</v>
@@ -4295,9 +4357,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>235236</v>
@@ -4363,9 +4425,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>235237</v>
@@ -4431,9 +4493,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>235238</v>
@@ -4499,9 +4561,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>235239</v>
@@ -4567,9 +4629,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>235240</v>
@@ -4635,9 +4697,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>235241</v>
@@ -4751,9 +4813,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>235242</v>
@@ -4819,9 +4881,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>235243</v>
@@ -4887,9 +4949,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>235244</v>
@@ -4955,9 +5017,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>235245</v>
@@ -5023,9 +5085,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>235246</v>
@@ -5139,9 +5201,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>235247</v>
@@ -5207,9 +5269,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>235248</v>
@@ -5275,9 +5337,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>235249</v>
@@ -5391,9 +5453,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>235250</v>
@@ -5459,9 +5521,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>235251</v>
@@ -5575,9 +5637,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>235252</v>
@@ -5691,9 +5753,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>235253</v>
@@ -5807,9 +5869,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>235254</v>
@@ -5875,9 +5937,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>235255</v>
@@ -5943,9 +6005,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>235256</v>
@@ -6011,9 +6073,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>235257</v>
@@ -6079,9 +6141,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>235258</v>
@@ -6147,9 +6209,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>235259</v>
@@ -6263,9 +6325,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>235260</v>
@@ -6331,9 +6393,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>235261</v>
@@ -6399,9 +6461,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>235262</v>
@@ -6467,9 +6529,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>235263</v>
@@ -6583,9 +6645,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>235264</v>
@@ -6651,9 +6713,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>235265</v>
@@ -6719,9 +6781,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>235266</v>
@@ -6835,9 +6897,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>235267</v>
@@ -6951,9 +7013,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>235268</v>
@@ -7019,9 +7081,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>235269</v>
@@ -7087,9 +7149,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>235270</v>
@@ -7155,9 +7217,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>235271</v>
@@ -7223,9 +7285,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>235272</v>
@@ -7291,9 +7353,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>235273</v>
@@ -7407,9 +7469,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>235274</v>
@@ -7475,9 +7537,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>235275</v>
@@ -7543,9 +7605,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>235276</v>
@@ -7629,9 +7691,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>235277</v>
@@ -7697,9 +7759,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>235278</v>
@@ -7765,9 +7827,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>235279</v>
@@ -7833,9 +7895,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>235280</v>
@@ -7937,9 +7999,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>235281</v>
@@ -8005,9 +8067,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>235282</v>
@@ -8121,9 +8183,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>235283</v>
@@ -8237,9 +8299,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>235284</v>
@@ -8353,9 +8415,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>235285</v>
@@ -8421,9 +8483,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>235286</v>
@@ -8537,9 +8599,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>235287</v>
@@ -8653,9 +8715,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>235288</v>
@@ -8721,9 +8783,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>235289</v>
@@ -8837,9 +8899,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>235290</v>
@@ -8953,9 +9015,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>235291</v>
@@ -9069,9 +9131,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>235292</v>
@@ -9137,9 +9199,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>235293</v>
@@ -9253,9 +9315,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>235294</v>
@@ -9369,9 +9431,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>235295</v>
@@ -9485,9 +9547,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>235296</v>
@@ -9553,9 +9615,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>235297</v>
@@ -9621,9 +9683,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>235298</v>
@@ -9737,9 +9799,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>235299</v>
@@ -9805,9 +9867,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>235300</v>
@@ -9873,9 +9935,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>235301</v>
@@ -9941,9 +10003,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>235302</v>
@@ -10009,9 +10071,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>235303</v>
@@ -10077,9 +10139,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>235304</v>
@@ -10145,9 +10207,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>235305</v>
@@ -10261,9 +10323,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>235306</v>
@@ -10377,9 +10439,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>235307</v>
@@ -10445,9 +10507,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>235308</v>
@@ -10513,9 +10575,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>235309</v>
@@ -10581,9 +10643,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>235310</v>
@@ -10649,9 +10711,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>235311</v>
@@ -10717,9 +10779,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>235312</v>
@@ -10785,9 +10847,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>235313</v>
@@ -10901,9 +10963,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>235314</v>
@@ -10969,9 +11031,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>235315</v>
@@ -11037,9 +11099,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>235316</v>
@@ -11105,9 +11167,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>235317</v>
@@ -11173,9 +11235,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>235318</v>
@@ -11241,9 +11303,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>235319</v>
@@ -11309,9 +11371,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>235320</v>
@@ -11377,9 +11439,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>235321</v>
@@ -11445,9 +11507,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>235322</v>
@@ -11513,9 +11575,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>235323</v>
@@ -11629,9 +11691,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>235324</v>
@@ -11697,9 +11759,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>235325</v>
@@ -11765,9 +11827,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>235326</v>
@@ -11833,9 +11895,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>235327</v>
@@ -11901,9 +11963,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>235328</v>
@@ -11969,9 +12031,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>235329</v>
@@ -12037,9 +12099,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>235330</v>
@@ -12153,9 +12215,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>235331</v>
@@ -12221,9 +12283,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>235332</v>
@@ -12337,9 +12399,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>235333</v>
@@ -12453,9 +12515,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>235334</v>
@@ -12569,9 +12631,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>235335</v>
@@ -12685,9 +12747,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>235336</v>
@@ -12753,9 +12815,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>235337</v>
@@ -12869,9 +12931,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>235338</v>
@@ -12937,9 +12999,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>235339</v>
@@ -13005,9 +13067,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>235340</v>
@@ -13073,9 +13135,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>235341</v>
@@ -13189,9 +13251,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>235342</v>
@@ -13257,9 +13319,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>235343</v>
@@ -13325,9 +13387,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>235344</v>
@@ -13441,9 +13503,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>235345</v>
@@ -13509,9 +13571,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>235346</v>
@@ -13619,9 +13681,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>235347</v>
@@ -13735,9 +13797,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>235348</v>
@@ -13851,9 +13913,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>235349</v>
@@ -13955,9 +14017,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>235350</v>
@@ -14059,9 +14121,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>235351</v>
@@ -14175,9 +14237,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>235352</v>
@@ -14285,9 +14347,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>235353</v>
@@ -14401,9 +14463,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>235354</v>
@@ -14508,9 +14570,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>235355</v>
@@ -14606,9 +14668,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>235356</v>
@@ -14722,9 +14784,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>235357</v>
@@ -14832,9 +14894,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>235358</v>
@@ -14948,9 +15010,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>235359</v>
@@ -15061,9 +15123,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>235360</v>
@@ -15177,9 +15239,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>38</v>
@@ -15257,9 +15319,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>39</v>
@@ -15349,9 +15411,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>40</v>
@@ -15465,9 +15527,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
@@ -15581,9 +15643,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>42</v>
@@ -15697,9 +15759,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>43</v>
@@ -15813,9 +15875,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>44</v>
@@ -15881,9 +15943,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>45</v>
@@ -15997,9 +16059,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>46</v>

--- a/Cleaned-Data/2015-Passouts/Sem-5_2015_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2015-Passouts/Sem-5_2015_Passout_cleaned.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24600" windowHeight="12280"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sem-5_2015_Passout_cleaned" sheetId="1" r:id="rId1"/>
@@ -635,9 +635,6 @@
     <t>GHUMAN RAJNEET SINGH IQBAL SINGH</t>
   </si>
   <si>
-    <t>/ KOLHATKAR SONIYA JAGDISH</t>
-  </si>
-  <si>
     <t>MESHRAM ARCHIES SIDDHARTH</t>
   </si>
   <si>
@@ -1065,6 +1062,9 @@
   </si>
   <si>
     <t xml:space="preserve">Three Hundred Eighty Eight </t>
+  </si>
+  <si>
+    <t>KOLHATKAR SONIYA JAGDISH</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,10 +1655,10 @@
         <v>470</v>
       </c>
       <c r="AK2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
@@ -1723,10 +1723,10 @@
         <v>534</v>
       </c>
       <c r="AK3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
@@ -1791,10 +1791,10 @@
         <v>558</v>
       </c>
       <c r="AK4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
@@ -1859,10 +1859,10 @@
         <v>560</v>
       </c>
       <c r="AK5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
@@ -1879,106 +1879,106 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J6">
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L6">
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6">
         <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P6">
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R6">
         <v>20</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T6">
         <v>21</v>
       </c>
       <c r="U6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V6">
         <v>28</v>
       </c>
       <c r="W6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X6">
         <v>18</v>
       </c>
       <c r="Y6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z6">
         <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB6">
         <v>21</v>
       </c>
       <c r="AC6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD6">
         <v>23</v>
       </c>
       <c r="AE6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF6">
         <v>26</v>
       </c>
       <c r="AG6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH6">
         <v>18</v>
       </c>
       <c r="AI6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ6">
         <v>452</v>
       </c>
       <c r="AK6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
@@ -1995,106 +1995,106 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7">
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J7">
         <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L7">
         <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N7">
         <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P7">
         <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R7">
         <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T7">
         <v>21</v>
       </c>
       <c r="U7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V7">
         <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X7">
         <v>23</v>
       </c>
       <c r="Y7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z7">
         <v>53</v>
       </c>
       <c r="AA7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB7">
         <v>23</v>
       </c>
       <c r="AC7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD7">
         <v>22</v>
       </c>
       <c r="AE7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF7">
         <v>30</v>
       </c>
       <c r="AG7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH7">
         <v>23</v>
       </c>
       <c r="AI7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ7">
         <v>522</v>
       </c>
       <c r="AK7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -2111,106 +2111,106 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8">
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L8">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N8">
         <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P8">
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R8">
         <v>20</v>
       </c>
       <c r="S8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T8">
         <v>22</v>
       </c>
       <c r="U8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V8">
         <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X8">
         <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z8">
         <v>41</v>
       </c>
       <c r="AA8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB8">
         <v>20</v>
       </c>
       <c r="AC8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD8">
         <v>21</v>
       </c>
       <c r="AE8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF8">
         <v>24</v>
       </c>
       <c r="AG8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH8">
         <v>18</v>
       </c>
       <c r="AI8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ8">
         <v>456</v>
       </c>
       <c r="AK8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
@@ -2275,10 +2275,10 @@
         <v>586</v>
       </c>
       <c r="AK9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
@@ -2343,10 +2343,10 @@
         <v>615</v>
       </c>
       <c r="AK10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
@@ -2411,10 +2411,10 @@
         <v>562</v>
       </c>
       <c r="AK11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
@@ -2479,10 +2479,10 @@
         <v>551</v>
       </c>
       <c r="AK12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
@@ -2547,10 +2547,10 @@
         <v>510</v>
       </c>
       <c r="AK13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
@@ -2567,106 +2567,106 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H14">
         <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J14">
         <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14">
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N14">
         <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P14">
         <v>48</v>
       </c>
       <c r="Q14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R14">
         <v>20</v>
       </c>
       <c r="S14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T14">
         <v>21</v>
       </c>
       <c r="U14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V14">
         <v>28</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X14">
         <v>22</v>
       </c>
       <c r="Y14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z14">
         <v>51</v>
       </c>
       <c r="AA14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB14">
         <v>18</v>
       </c>
       <c r="AC14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD14">
         <v>18</v>
       </c>
       <c r="AE14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF14">
         <v>23</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH14">
         <v>19</v>
       </c>
       <c r="AI14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ14">
         <v>491</v>
       </c>
       <c r="AK14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
@@ -2731,10 +2731,10 @@
         <v>486</v>
       </c>
       <c r="AK15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
@@ -2799,10 +2799,10 @@
         <v>495</v>
       </c>
       <c r="AK16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
@@ -2867,10 +2867,10 @@
         <v>532</v>
       </c>
       <c r="AK17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
@@ -2887,106 +2887,106 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18">
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J18">
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N18">
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P18">
         <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R18">
         <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T18">
         <v>21</v>
       </c>
       <c r="U18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V18">
         <v>4</v>
       </c>
       <c r="W18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X18">
         <v>24</v>
       </c>
       <c r="Y18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z18">
         <v>43</v>
       </c>
       <c r="AA18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB18">
         <v>19</v>
       </c>
       <c r="AC18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD18">
         <v>21</v>
       </c>
       <c r="AE18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF18">
         <v>30</v>
       </c>
       <c r="AG18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH18">
         <v>21</v>
       </c>
       <c r="AI18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ18">
         <v>470</v>
       </c>
       <c r="AK18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
@@ -3051,10 +3051,10 @@
         <v>453</v>
       </c>
       <c r="AK19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
@@ -3119,10 +3119,10 @@
         <v>559</v>
       </c>
       <c r="AK20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
@@ -3139,106 +3139,106 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21">
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21">
         <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J21">
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L21">
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N21">
         <v>39</v>
       </c>
       <c r="O21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P21">
         <v>33</v>
       </c>
       <c r="Q21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R21">
         <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T21">
         <v>20</v>
       </c>
       <c r="U21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V21">
         <v>29</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X21">
         <v>23</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z21">
         <v>41</v>
       </c>
       <c r="AA21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB21">
         <v>22</v>
       </c>
       <c r="AC21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD21">
         <v>19</v>
       </c>
       <c r="AE21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21">
         <v>31</v>
       </c>
       <c r="AG21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH21">
         <v>23</v>
       </c>
       <c r="AI21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ21">
         <v>472</v>
       </c>
       <c r="AK21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
@@ -3303,10 +3303,10 @@
         <v>509</v>
       </c>
       <c r="AK22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
@@ -3371,10 +3371,10 @@
         <v>532</v>
       </c>
       <c r="AK23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
@@ -3439,10 +3439,10 @@
         <v>538</v>
       </c>
       <c r="AK24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -3507,10 +3507,10 @@
         <v>517</v>
       </c>
       <c r="AK25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
@@ -3575,10 +3575,10 @@
         <v>585</v>
       </c>
       <c r="AK26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
@@ -3643,10 +3643,10 @@
         <v>580</v>
       </c>
       <c r="AK27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
@@ -3663,106 +3663,106 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28">
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28">
         <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J28">
         <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L28">
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N28">
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P28">
         <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R28">
         <v>20</v>
       </c>
       <c r="S28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T28">
         <v>22</v>
       </c>
       <c r="U28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V28">
         <v>28</v>
       </c>
       <c r="W28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X28">
         <v>16</v>
       </c>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z28">
         <v>40</v>
       </c>
       <c r="AA28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB28">
         <v>18</v>
       </c>
       <c r="AC28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD28">
         <v>17</v>
       </c>
       <c r="AE28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28">
         <v>22</v>
       </c>
       <c r="AG28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH28">
         <v>16</v>
       </c>
       <c r="AI28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ28">
         <v>396</v>
       </c>
       <c r="AK28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -3779,106 +3779,106 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29">
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H29">
         <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29">
         <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L29">
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P29">
         <v>41</v>
       </c>
       <c r="Q29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R29">
         <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T29">
         <v>21</v>
       </c>
       <c r="U29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V29">
         <v>25</v>
       </c>
       <c r="W29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X29">
         <v>17</v>
       </c>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z29">
         <v>26</v>
       </c>
       <c r="AA29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB29">
         <v>18</v>
       </c>
       <c r="AC29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD29">
         <v>17</v>
       </c>
       <c r="AE29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF29">
         <v>24</v>
       </c>
       <c r="AG29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH29">
         <v>19</v>
       </c>
       <c r="AI29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ29">
         <v>442</v>
       </c>
       <c r="AK29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>519</v>
       </c>
       <c r="AK30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -4011,10 +4011,10 @@
         <v>525</v>
       </c>
       <c r="AK31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -4079,10 +4079,10 @@
         <v>543</v>
       </c>
       <c r="AK32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>539</v>
       </c>
       <c r="AK33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
@@ -4215,10 +4215,10 @@
         <v>544</v>
       </c>
       <c r="AK34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>585</v>
       </c>
       <c r="AK35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -4351,10 +4351,10 @@
         <v>575</v>
       </c>
       <c r="AK36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -4419,10 +4419,10 @@
         <v>630</v>
       </c>
       <c r="AK37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -4487,10 +4487,10 @@
         <v>580</v>
       </c>
       <c r="AK38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -4555,10 +4555,10 @@
         <v>625</v>
       </c>
       <c r="AK39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
@@ -4623,10 +4623,10 @@
         <v>638</v>
       </c>
       <c r="AK40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
@@ -4691,10 +4691,10 @@
         <v>599</v>
       </c>
       <c r="AK41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
@@ -4711,106 +4711,106 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F42">
         <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J42">
         <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L42">
         <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N42">
         <v>40</v>
       </c>
       <c r="O42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P42">
         <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R42">
         <v>20</v>
       </c>
       <c r="S42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T42">
         <v>23</v>
       </c>
       <c r="U42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V42">
         <v>24</v>
       </c>
       <c r="W42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X42">
         <v>22</v>
       </c>
       <c r="Y42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z42">
         <v>57</v>
       </c>
       <c r="AA42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB42">
         <v>19</v>
       </c>
       <c r="AC42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD42">
         <v>19</v>
       </c>
       <c r="AE42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF42">
         <v>31</v>
       </c>
       <c r="AG42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH42">
         <v>21</v>
       </c>
       <c r="AI42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ42">
         <v>511</v>
       </c>
       <c r="AK42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -4875,10 +4875,10 @@
         <v>576</v>
       </c>
       <c r="AK43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -4943,10 +4943,10 @@
         <v>561</v>
       </c>
       <c r="AK44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -5011,10 +5011,10 @@
         <v>535</v>
       </c>
       <c r="AK45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -5079,10 +5079,10 @@
         <v>505</v>
       </c>
       <c r="AK46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
@@ -5099,106 +5099,106 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F47">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H47">
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47">
         <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47">
         <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N47">
         <v>38</v>
       </c>
       <c r="O47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P47">
         <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R47">
         <v>21</v>
       </c>
       <c r="S47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T47">
         <v>22</v>
       </c>
       <c r="U47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V47">
         <v>18</v>
       </c>
       <c r="W47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X47">
         <v>23</v>
       </c>
       <c r="Y47" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z47">
+        <v>22</v>
+      </c>
+      <c r="AA47" t="s">
         <v>216</v>
       </c>
-      <c r="Z47">
-        <v>22</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>217</v>
-      </c>
       <c r="AB47">
         <v>20</v>
       </c>
       <c r="AC47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD47">
         <v>20</v>
       </c>
       <c r="AE47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF47">
         <v>21</v>
       </c>
       <c r="AG47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH47">
         <v>18</v>
       </c>
       <c r="AI47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ47">
         <v>387</v>
       </c>
       <c r="AK47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
@@ -5263,10 +5263,10 @@
         <v>553</v>
       </c>
       <c r="AK48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
@@ -5331,10 +5331,10 @@
         <v>536</v>
       </c>
       <c r="AK49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
@@ -5351,106 +5351,106 @@
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50">
         <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H50">
         <v>39</v>
       </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J50">
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L50">
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N50">
         <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P50">
         <v>40</v>
       </c>
       <c r="Q50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R50">
         <v>23</v>
       </c>
       <c r="S50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T50">
         <v>22</v>
       </c>
       <c r="U50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V50">
         <v>26</v>
       </c>
       <c r="W50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X50">
         <v>23</v>
       </c>
       <c r="Y50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z50">
         <v>40</v>
       </c>
       <c r="AA50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB50">
         <v>22</v>
       </c>
       <c r="AC50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD50">
         <v>20</v>
       </c>
       <c r="AE50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF50">
         <v>30</v>
       </c>
       <c r="AG50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH50">
         <v>23</v>
       </c>
       <c r="AI50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ50">
         <v>471</v>
       </c>
       <c r="AK50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
@@ -5515,10 +5515,10 @@
         <v>515</v>
       </c>
       <c r="AK51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
@@ -5535,106 +5535,106 @@
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F52">
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H52">
         <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J52">
         <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L52">
         <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N52">
         <v>44</v>
       </c>
       <c r="O52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P52">
         <v>43</v>
       </c>
       <c r="Q52" t="s">
+        <v>215</v>
+      </c>
+      <c r="R52">
+        <v>23</v>
+      </c>
+      <c r="S52" t="s">
+        <v>215</v>
+      </c>
+      <c r="T52">
+        <v>20</v>
+      </c>
+      <c r="U52" t="s">
+        <v>215</v>
+      </c>
+      <c r="V52">
+        <v>23</v>
+      </c>
+      <c r="W52" t="s">
         <v>216</v>
       </c>
-      <c r="R52">
-        <v>23</v>
-      </c>
-      <c r="S52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T52">
-        <v>20</v>
-      </c>
-      <c r="U52" t="s">
-        <v>216</v>
-      </c>
-      <c r="V52">
-        <v>23</v>
-      </c>
-      <c r="W52" t="s">
-        <v>217</v>
-      </c>
       <c r="X52">
         <v>23</v>
       </c>
       <c r="Y52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z52">
         <v>58</v>
       </c>
       <c r="AA52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB52">
         <v>23</v>
       </c>
       <c r="AC52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD52">
         <v>24</v>
       </c>
       <c r="AE52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF52">
         <v>29</v>
       </c>
       <c r="AG52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH52">
         <v>20</v>
       </c>
       <c r="AI52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ52">
         <v>547</v>
       </c>
       <c r="AK52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
@@ -5651,106 +5651,106 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53">
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H53">
         <v>40</v>
       </c>
       <c r="I53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J53">
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53">
         <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N53">
         <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P53">
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R53">
         <v>22</v>
       </c>
       <c r="S53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T53">
         <v>22</v>
       </c>
       <c r="U53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V53">
         <v>18</v>
       </c>
       <c r="W53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X53">
         <v>21</v>
       </c>
       <c r="Y53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z53">
         <v>25</v>
       </c>
       <c r="AA53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB53">
         <v>20</v>
       </c>
       <c r="AC53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD53">
         <v>18</v>
       </c>
       <c r="AE53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF53">
         <v>22</v>
       </c>
       <c r="AG53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH53">
         <v>18</v>
       </c>
       <c r="AI53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ53">
         <v>424</v>
       </c>
       <c r="AK53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
@@ -5767,106 +5767,106 @@
         <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F54">
         <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H54">
         <v>39</v>
       </c>
       <c r="I54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J54">
         <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L54">
         <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N54">
         <v>38</v>
       </c>
       <c r="O54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P54">
         <v>57</v>
       </c>
       <c r="Q54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R54">
         <v>19</v>
       </c>
       <c r="S54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T54">
         <v>20</v>
       </c>
       <c r="U54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V54">
         <v>32</v>
       </c>
       <c r="W54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X54">
         <v>21</v>
       </c>
       <c r="Y54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z54">
         <v>44</v>
       </c>
       <c r="AA54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB54">
         <v>19</v>
       </c>
       <c r="AC54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD54">
         <v>22</v>
       </c>
       <c r="AE54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF54">
         <v>25</v>
       </c>
       <c r="AG54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH54">
         <v>18</v>
       </c>
       <c r="AI54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ54">
         <v>500</v>
       </c>
       <c r="AK54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
@@ -5931,10 +5931,10 @@
         <v>609</v>
       </c>
       <c r="AK55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
@@ -5999,10 +5999,10 @@
         <v>512</v>
       </c>
       <c r="AK56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
@@ -6067,10 +6067,10 @@
         <v>582</v>
       </c>
       <c r="AK57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
@@ -6135,10 +6135,10 @@
         <v>551</v>
       </c>
       <c r="AK58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -6203,10 +6203,10 @@
         <v>554</v>
       </c>
       <c r="AK59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
@@ -6223,106 +6223,106 @@
         <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H60">
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J60">
         <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L60">
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N60">
         <v>38</v>
       </c>
       <c r="O60" t="s">
+        <v>215</v>
+      </c>
+      <c r="P60">
+        <v>20</v>
+      </c>
+      <c r="Q60" t="s">
         <v>216</v>
       </c>
-      <c r="P60">
-        <v>20</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>217</v>
-      </c>
       <c r="R60">
         <v>20</v>
       </c>
       <c r="S60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T60">
         <v>21</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V60">
         <v>48</v>
       </c>
       <c r="W60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X60">
         <v>21</v>
       </c>
       <c r="Y60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z60">
         <v>52</v>
       </c>
       <c r="AA60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB60">
         <v>23</v>
       </c>
       <c r="AC60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD60">
         <v>20</v>
       </c>
       <c r="AE60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF60">
         <v>31</v>
       </c>
       <c r="AG60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH60">
         <v>22</v>
       </c>
       <c r="AI60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ60">
         <v>508</v>
       </c>
       <c r="AK60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
@@ -6387,10 +6387,10 @@
         <v>558</v>
       </c>
       <c r="AK61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
@@ -6455,10 +6455,10 @@
         <v>533</v>
       </c>
       <c r="AK62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
@@ -6523,10 +6523,10 @@
         <v>527</v>
       </c>
       <c r="AK63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -6543,106 +6543,106 @@
         <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F64">
         <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H64">
         <v>38</v>
       </c>
       <c r="I64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J64">
         <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L64">
         <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N64">
         <v>38</v>
       </c>
       <c r="O64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P64">
         <v>40</v>
       </c>
       <c r="Q64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R64">
         <v>20</v>
       </c>
       <c r="S64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T64">
         <v>21</v>
       </c>
       <c r="U64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V64">
         <v>25</v>
       </c>
       <c r="W64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X64">
         <v>21</v>
       </c>
       <c r="Y64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z64">
         <v>13</v>
       </c>
       <c r="AA64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB64">
         <v>20</v>
       </c>
       <c r="AC64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD64">
         <v>20</v>
       </c>
       <c r="AE64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF64">
         <v>28</v>
       </c>
       <c r="AG64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH64">
         <v>19</v>
       </c>
       <c r="AI64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ64">
         <v>451</v>
       </c>
       <c r="AK64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
@@ -6707,10 +6707,10 @@
         <v>567</v>
       </c>
       <c r="AK65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
@@ -6775,10 +6775,10 @@
         <v>482</v>
       </c>
       <c r="AK66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -6795,106 +6795,106 @@
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F67">
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H67">
         <v>37</v>
       </c>
       <c r="I67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J67">
         <v>50</v>
       </c>
       <c r="K67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L67">
         <v>22</v>
       </c>
       <c r="M67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N67">
         <v>39</v>
       </c>
       <c r="O67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P67">
         <v>40</v>
       </c>
       <c r="Q67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R67">
         <v>21</v>
       </c>
       <c r="S67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T67">
         <v>22</v>
       </c>
       <c r="U67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V67">
         <v>28</v>
       </c>
       <c r="W67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X67">
         <v>22</v>
       </c>
       <c r="Y67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z67">
         <v>51</v>
       </c>
       <c r="AA67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB67">
         <v>22</v>
       </c>
       <c r="AC67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD67">
         <v>21</v>
       </c>
       <c r="AE67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF67">
         <v>28</v>
       </c>
       <c r="AG67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH67">
         <v>22</v>
       </c>
       <c r="AI67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ67">
         <v>488</v>
       </c>
       <c r="AK67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -6911,106 +6911,106 @@
         <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H68">
         <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J68">
         <v>41</v>
       </c>
       <c r="K68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L68">
         <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N68">
         <v>37</v>
       </c>
       <c r="O68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P68">
         <v>3</v>
       </c>
       <c r="Q68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R68">
         <v>20</v>
       </c>
       <c r="S68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T68">
         <v>20</v>
       </c>
       <c r="U68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V68">
         <v>3</v>
       </c>
       <c r="W68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X68">
         <v>16</v>
       </c>
       <c r="Y68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z68">
         <v>13</v>
       </c>
       <c r="AA68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB68">
         <v>19</v>
       </c>
       <c r="AC68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD68">
         <v>18</v>
       </c>
       <c r="AE68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF68">
         <v>31</v>
       </c>
       <c r="AG68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH68">
         <v>20</v>
       </c>
       <c r="AI68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ68">
         <v>361</v>
       </c>
       <c r="AK68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
@@ -7075,10 +7075,10 @@
         <v>563</v>
       </c>
       <c r="AK69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -7143,10 +7143,10 @@
         <v>574</v>
       </c>
       <c r="AK70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -7211,10 +7211,10 @@
         <v>530</v>
       </c>
       <c r="AK71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -7279,10 +7279,10 @@
         <v>514</v>
       </c>
       <c r="AK72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
@@ -7347,10 +7347,10 @@
         <v>509</v>
       </c>
       <c r="AK73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -7367,106 +7367,106 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F74">
         <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H74">
         <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J74">
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L74">
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N74">
         <v>37</v>
       </c>
       <c r="O74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P74">
         <v>32</v>
       </c>
       <c r="Q74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R74">
         <v>21</v>
       </c>
       <c r="S74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T74">
         <v>20</v>
       </c>
       <c r="U74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V74">
         <v>15</v>
       </c>
       <c r="W74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X74">
         <v>20</v>
       </c>
       <c r="Y74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z74">
         <v>17</v>
       </c>
       <c r="AA74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB74">
         <v>21</v>
       </c>
       <c r="AC74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD74">
         <v>20</v>
       </c>
       <c r="AE74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF74">
         <v>24</v>
       </c>
       <c r="AG74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH74">
         <v>17</v>
       </c>
       <c r="AI74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ74">
         <v>409</v>
       </c>
       <c r="AK74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
@@ -7531,10 +7531,10 @@
         <v>521</v>
       </c>
       <c r="AK75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -7599,10 +7599,10 @@
         <v>553</v>
       </c>
       <c r="AK76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
@@ -7619,76 +7619,76 @@
         <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H77">
         <v>37</v>
       </c>
       <c r="I77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L77">
         <v>18</v>
       </c>
       <c r="M77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N77">
         <v>37</v>
       </c>
       <c r="O77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R77">
         <v>21</v>
       </c>
       <c r="S77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T77">
         <v>19</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X77">
         <v>16</v>
       </c>
       <c r="Y77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB77">
         <v>19</v>
       </c>
       <c r="AC77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD77">
         <v>18</v>
       </c>
       <c r="AE77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF77">
         <v>25</v>
       </c>
       <c r="AG77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH77">
         <v>17</v>
       </c>
       <c r="AI77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ77">
         <v>248</v>
       </c>
       <c r="AK77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -7753,10 +7753,10 @@
         <v>603</v>
       </c>
       <c r="AK78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
@@ -7821,10 +7821,10 @@
         <v>563</v>
       </c>
       <c r="AK79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -7889,10 +7889,10 @@
         <v>625</v>
       </c>
       <c r="AK80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.2">
@@ -7909,94 +7909,94 @@
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F81">
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H81">
         <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J81">
         <v>43</v>
       </c>
       <c r="K81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L81">
         <v>20</v>
       </c>
       <c r="M81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N81">
         <v>39</v>
       </c>
       <c r="O81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P81">
         <v>32</v>
       </c>
       <c r="Q81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R81">
         <v>19</v>
       </c>
       <c r="S81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T81">
         <v>20</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X81">
         <v>16</v>
       </c>
       <c r="Y81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB81">
         <v>20</v>
       </c>
       <c r="AC81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD81">
         <v>20</v>
       </c>
       <c r="AE81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF81">
         <v>29</v>
       </c>
       <c r="AG81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH81">
         <v>16</v>
       </c>
       <c r="AI81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ81">
         <v>349</v>
       </c>
       <c r="AK81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
@@ -8061,10 +8061,10 @@
         <v>584</v>
       </c>
       <c r="AK82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
@@ -8081,106 +8081,106 @@
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83">
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H83">
         <v>41</v>
       </c>
       <c r="I83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J83">
         <v>50</v>
       </c>
       <c r="K83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L83">
         <v>18</v>
       </c>
       <c r="M83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N83">
         <v>38</v>
       </c>
       <c r="O83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P83">
         <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R83">
         <v>22</v>
       </c>
       <c r="S83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T83">
         <v>21</v>
       </c>
       <c r="U83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V83">
         <v>33</v>
       </c>
       <c r="W83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X83">
         <v>22</v>
       </c>
       <c r="Y83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z83">
         <v>49</v>
       </c>
       <c r="AA83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB83">
         <v>19</v>
       </c>
       <c r="AC83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD83">
         <v>18</v>
       </c>
       <c r="AE83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF83">
         <v>29</v>
       </c>
       <c r="AG83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH83">
         <v>19</v>
       </c>
       <c r="AI83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ83">
         <v>479</v>
       </c>
       <c r="AK83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.2">
@@ -8197,106 +8197,106 @@
         <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F84">
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H84">
         <v>38</v>
       </c>
       <c r="I84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J84">
         <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L84">
         <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N84">
         <v>40</v>
       </c>
       <c r="O84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P84">
         <v>45</v>
       </c>
       <c r="Q84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R84">
         <v>21</v>
       </c>
       <c r="S84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T84">
         <v>20</v>
       </c>
       <c r="U84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V84">
         <v>24</v>
       </c>
       <c r="W84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X84">
         <v>19</v>
       </c>
       <c r="Y84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z84">
         <v>40</v>
       </c>
       <c r="AA84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB84">
         <v>18</v>
       </c>
       <c r="AC84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD84">
         <v>19</v>
       </c>
       <c r="AE84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF84">
         <v>39</v>
       </c>
       <c r="AG84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH84">
         <v>16</v>
       </c>
       <c r="AI84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ84">
         <v>480</v>
       </c>
       <c r="AK84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.2">
@@ -8313,106 +8313,106 @@
         <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F85">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H85">
         <v>42</v>
       </c>
       <c r="I85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J85">
         <v>56</v>
       </c>
       <c r="K85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L85">
         <v>18</v>
       </c>
       <c r="M85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N85">
         <v>39</v>
       </c>
       <c r="O85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P85">
         <v>41</v>
       </c>
       <c r="Q85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R85">
         <v>20</v>
       </c>
       <c r="S85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T85">
         <v>21</v>
       </c>
       <c r="U85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V85">
         <v>28</v>
       </c>
       <c r="W85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X85">
         <v>23</v>
       </c>
       <c r="Y85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z85">
         <v>59</v>
       </c>
       <c r="AA85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB85">
         <v>21</v>
       </c>
       <c r="AC85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD85">
         <v>21</v>
       </c>
       <c r="AE85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF85">
         <v>36</v>
       </c>
       <c r="AG85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH85">
         <v>17</v>
       </c>
       <c r="AI85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ85">
         <v>524</v>
       </c>
       <c r="AK85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
@@ -8477,10 +8477,10 @@
         <v>522</v>
       </c>
       <c r="AK86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
@@ -8497,106 +8497,106 @@
         <v>54</v>
       </c>
       <c r="E87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F87">
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H87">
         <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J87">
         <v>45</v>
       </c>
       <c r="K87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L87">
         <v>18</v>
       </c>
       <c r="M87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N87">
         <v>36</v>
       </c>
       <c r="O87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P87">
         <v>26</v>
       </c>
       <c r="Q87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R87">
         <v>20</v>
       </c>
       <c r="S87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T87">
         <v>20</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V87">
         <v>25</v>
       </c>
       <c r="W87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X87">
         <v>19</v>
       </c>
       <c r="Y87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z87">
         <v>45</v>
       </c>
       <c r="AA87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB87">
         <v>19</v>
       </c>
       <c r="AC87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD87">
         <v>19</v>
       </c>
       <c r="AE87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF87">
         <v>25</v>
       </c>
       <c r="AG87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH87">
         <v>16</v>
       </c>
       <c r="AI87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ87">
         <v>445</v>
       </c>
       <c r="AK87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.2">
@@ -8613,106 +8613,106 @@
         <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F88">
         <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H88">
         <v>38</v>
       </c>
       <c r="I88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J88">
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L88">
         <v>19</v>
       </c>
       <c r="M88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N88">
         <v>38</v>
       </c>
       <c r="O88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P88">
         <v>5</v>
       </c>
       <c r="Q88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R88">
         <v>20</v>
       </c>
       <c r="S88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T88">
         <v>20</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V88">
         <v>5</v>
       </c>
       <c r="W88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X88">
         <v>19</v>
       </c>
       <c r="Y88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z88">
         <v>24</v>
       </c>
       <c r="AA88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB88">
         <v>18</v>
       </c>
       <c r="AC88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD88">
         <v>18</v>
       </c>
       <c r="AE88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF88">
         <v>26</v>
       </c>
       <c r="AG88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH88">
         <v>17</v>
       </c>
       <c r="AI88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ88">
         <v>403</v>
       </c>
       <c r="AK88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
@@ -8777,10 +8777,10 @@
         <v>525</v>
       </c>
       <c r="AK89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
@@ -8797,106 +8797,106 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90">
         <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H90">
         <v>38</v>
       </c>
       <c r="I90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J90">
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L90">
         <v>23</v>
       </c>
       <c r="M90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N90">
         <v>39</v>
       </c>
       <c r="O90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P90">
         <v>45</v>
       </c>
       <c r="Q90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R90">
         <v>23</v>
       </c>
       <c r="S90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T90">
         <v>23</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V90">
         <v>24</v>
       </c>
       <c r="W90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X90">
         <v>23</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z90">
         <v>40</v>
       </c>
       <c r="AA90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB90">
         <v>22</v>
       </c>
       <c r="AC90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD90">
         <v>19</v>
       </c>
       <c r="AE90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF90">
         <v>31</v>
       </c>
       <c r="AG90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH90">
         <v>23</v>
       </c>
       <c r="AI90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ90">
         <v>488</v>
       </c>
       <c r="AK90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
@@ -8913,106 +8913,106 @@
         <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F91">
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H91">
         <v>39</v>
       </c>
       <c r="I91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J91">
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L91">
         <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N91">
         <v>39</v>
       </c>
       <c r="O91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P91">
         <v>30</v>
       </c>
       <c r="Q91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R91">
         <v>21</v>
       </c>
       <c r="S91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T91">
         <v>22</v>
       </c>
       <c r="U91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V91">
         <v>29</v>
       </c>
       <c r="W91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X91">
         <v>21</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z91">
         <v>40</v>
       </c>
       <c r="AA91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB91">
         <v>19</v>
       </c>
       <c r="AC91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD91">
         <v>18</v>
       </c>
       <c r="AE91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF91">
         <v>31</v>
       </c>
       <c r="AG91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH91">
         <v>19</v>
       </c>
       <c r="AI91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ91">
         <v>449</v>
       </c>
       <c r="AK91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
@@ -9029,106 +9029,106 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F92">
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H92">
         <v>40</v>
       </c>
       <c r="I92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J92">
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L92">
         <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N92">
         <v>36</v>
       </c>
       <c r="O92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P92">
         <v>42</v>
       </c>
       <c r="Q92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R92">
         <v>23</v>
       </c>
       <c r="S92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T92">
         <v>23</v>
       </c>
       <c r="U92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V92">
         <v>8</v>
       </c>
       <c r="W92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X92">
         <v>23</v>
       </c>
       <c r="Y92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z92">
         <v>45</v>
       </c>
       <c r="AA92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB92">
         <v>22</v>
       </c>
       <c r="AC92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD92">
         <v>18</v>
       </c>
       <c r="AE92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF92">
         <v>29</v>
       </c>
       <c r="AG92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH92">
         <v>23</v>
       </c>
       <c r="AI92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ92">
         <v>443</v>
       </c>
       <c r="AK92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
@@ -9193,10 +9193,10 @@
         <v>481</v>
       </c>
       <c r="AK93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
@@ -9213,106 +9213,106 @@
         <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F94">
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H94">
         <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J94">
         <v>51</v>
       </c>
       <c r="K94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L94">
         <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N94">
         <v>38</v>
       </c>
       <c r="O94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P94">
         <v>30</v>
       </c>
       <c r="Q94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R94">
         <v>20</v>
       </c>
       <c r="S94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T94">
         <v>21</v>
       </c>
       <c r="U94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V94">
         <v>24</v>
       </c>
       <c r="W94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X94">
         <v>21</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z94">
         <v>43</v>
       </c>
       <c r="AA94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB94">
         <v>22</v>
       </c>
       <c r="AC94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD94">
         <v>18</v>
       </c>
       <c r="AE94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF94">
         <v>30</v>
       </c>
       <c r="AG94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH94">
         <v>19</v>
       </c>
       <c r="AI94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ94">
         <v>481</v>
       </c>
       <c r="AK94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
@@ -9329,106 +9329,106 @@
         <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F95">
         <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H95">
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J95">
         <v>46</v>
       </c>
       <c r="K95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L95">
         <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N95">
         <v>37</v>
       </c>
       <c r="O95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P95">
         <v>30</v>
       </c>
       <c r="Q95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R95">
         <v>21</v>
       </c>
       <c r="S95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T95">
         <v>23</v>
       </c>
       <c r="U95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V95">
         <v>48</v>
       </c>
       <c r="W95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X95">
         <v>24</v>
       </c>
       <c r="Y95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z95">
         <v>40</v>
       </c>
       <c r="AA95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB95">
         <v>23</v>
       </c>
       <c r="AC95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD95">
         <v>20</v>
       </c>
       <c r="AE95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF95">
         <v>24</v>
       </c>
       <c r="AG95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH95">
         <v>18</v>
       </c>
       <c r="AI95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ95">
         <v>489</v>
       </c>
       <c r="AK95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
@@ -9445,106 +9445,106 @@
         <v>57</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F96">
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H96">
         <v>40</v>
       </c>
       <c r="I96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J96">
         <v>58</v>
       </c>
       <c r="K96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L96">
         <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N96">
         <v>39</v>
       </c>
       <c r="O96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P96">
         <v>25</v>
       </c>
       <c r="Q96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R96">
         <v>23</v>
       </c>
       <c r="S96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T96">
         <v>21</v>
       </c>
       <c r="U96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V96">
         <v>41</v>
       </c>
       <c r="W96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X96">
         <v>23</v>
       </c>
       <c r="Y96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z96">
         <v>40</v>
       </c>
       <c r="AA96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB96">
         <v>22</v>
       </c>
       <c r="AC96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD96">
         <v>22</v>
       </c>
       <c r="AE96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF96">
         <v>33</v>
       </c>
       <c r="AG96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH96">
         <v>22</v>
       </c>
       <c r="AI96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ96">
         <v>507</v>
       </c>
       <c r="AK96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -9609,10 +9609,10 @@
         <v>605</v>
       </c>
       <c r="AK97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
@@ -9677,10 +9677,10 @@
         <v>520</v>
       </c>
       <c r="AK98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -9697,106 +9697,106 @@
         <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F99">
         <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H99">
         <v>39</v>
       </c>
       <c r="I99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J99">
         <v>51</v>
       </c>
       <c r="K99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L99">
         <v>21</v>
       </c>
       <c r="M99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N99">
         <v>40</v>
       </c>
       <c r="O99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P99">
         <v>24</v>
       </c>
       <c r="Q99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R99">
         <v>21</v>
       </c>
       <c r="S99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T99">
         <v>22</v>
       </c>
       <c r="U99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V99">
         <v>46</v>
       </c>
       <c r="W99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X99">
         <v>18</v>
       </c>
       <c r="Y99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z99">
         <v>65</v>
       </c>
       <c r="AA99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB99">
         <v>16</v>
       </c>
       <c r="AC99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD99">
         <v>18</v>
       </c>
       <c r="AE99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF99">
         <v>36</v>
       </c>
       <c r="AG99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH99">
         <v>22</v>
       </c>
       <c r="AI99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ99">
         <v>515</v>
       </c>
       <c r="AK99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -9861,10 +9861,10 @@
         <v>489</v>
       </c>
       <c r="AK100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -9929,10 +9929,10 @@
         <v>603</v>
       </c>
       <c r="AK101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
@@ -9997,10 +9997,10 @@
         <v>535</v>
       </c>
       <c r="AK102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -10065,10 +10065,10 @@
         <v>475</v>
       </c>
       <c r="AK103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
@@ -10133,10 +10133,10 @@
         <v>527</v>
       </c>
       <c r="AK104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
@@ -10201,10 +10201,10 @@
         <v>493</v>
       </c>
       <c r="AK105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -10221,106 +10221,106 @@
         <v>42</v>
       </c>
       <c r="E106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F106">
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H106">
         <v>40</v>
       </c>
       <c r="I106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J106">
         <v>29</v>
       </c>
       <c r="K106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L106">
         <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N106">
         <v>37</v>
       </c>
       <c r="O106" t="s">
+        <v>215</v>
+      </c>
+      <c r="P106">
+        <v>21</v>
+      </c>
+      <c r="Q106" t="s">
         <v>216</v>
       </c>
-      <c r="P106">
-        <v>21</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>217</v>
-      </c>
       <c r="R106">
         <v>21</v>
       </c>
       <c r="S106" t="s">
+        <v>215</v>
+      </c>
+      <c r="T106">
+        <v>21</v>
+      </c>
+      <c r="U106" t="s">
+        <v>215</v>
+      </c>
+      <c r="V106">
+        <v>21</v>
+      </c>
+      <c r="W106" t="s">
         <v>216</v>
-      </c>
-      <c r="T106">
-        <v>21</v>
-      </c>
-      <c r="U106" t="s">
-        <v>216</v>
-      </c>
-      <c r="V106">
-        <v>21</v>
-      </c>
-      <c r="W106" t="s">
-        <v>217</v>
       </c>
       <c r="X106">
         <v>17</v>
       </c>
       <c r="Y106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z106">
         <v>40</v>
       </c>
       <c r="AA106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB106">
         <v>19</v>
       </c>
       <c r="AC106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD106">
         <v>19</v>
       </c>
       <c r="AE106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF106">
         <v>24</v>
       </c>
       <c r="AG106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH106">
         <v>18</v>
       </c>
       <c r="AI106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ106">
         <v>408</v>
       </c>
       <c r="AK106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
@@ -10337,106 +10337,106 @@
         <v>56</v>
       </c>
       <c r="E107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F107">
         <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H107">
         <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J107">
         <v>52</v>
       </c>
       <c r="K107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L107">
         <v>21</v>
       </c>
       <c r="M107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N107">
         <v>40</v>
       </c>
       <c r="O107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P107">
         <v>40</v>
       </c>
       <c r="Q107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R107">
         <v>20</v>
       </c>
       <c r="S107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T107">
         <v>20</v>
       </c>
       <c r="U107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V107">
         <v>28</v>
       </c>
       <c r="W107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X107">
         <v>22</v>
       </c>
       <c r="Y107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z107">
         <v>59</v>
       </c>
       <c r="AA107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB107">
         <v>20</v>
       </c>
       <c r="AC107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD107">
         <v>19</v>
       </c>
       <c r="AE107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF107">
         <v>33</v>
       </c>
       <c r="AG107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH107">
         <v>19</v>
       </c>
       <c r="AI107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ107">
         <v>509</v>
       </c>
       <c r="AK107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
@@ -10501,10 +10501,10 @@
         <v>529</v>
       </c>
       <c r="AK108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.2">
@@ -10569,10 +10569,10 @@
         <v>478</v>
       </c>
       <c r="AK109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.2">
@@ -10637,10 +10637,10 @@
         <v>599</v>
       </c>
       <c r="AK110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
@@ -10705,10 +10705,10 @@
         <v>567</v>
       </c>
       <c r="AK111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
@@ -10773,10 +10773,10 @@
         <v>525</v>
       </c>
       <c r="AK112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.2">
@@ -10841,10 +10841,10 @@
         <v>603</v>
       </c>
       <c r="AK113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.2">
@@ -10861,106 +10861,106 @@
         <v>40</v>
       </c>
       <c r="E114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F114">
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H114">
         <v>43</v>
       </c>
       <c r="I114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J114">
         <v>29</v>
       </c>
       <c r="K114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L114">
         <v>20</v>
       </c>
       <c r="M114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N114">
         <v>38</v>
       </c>
       <c r="O114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P114">
         <v>41</v>
       </c>
       <c r="Q114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R114">
         <v>22</v>
       </c>
       <c r="S114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T114">
         <v>22</v>
       </c>
       <c r="U114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V114">
         <v>41</v>
       </c>
       <c r="W114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X114">
         <v>22</v>
       </c>
       <c r="Y114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z114">
         <v>40</v>
       </c>
       <c r="AA114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB114">
         <v>19</v>
       </c>
       <c r="AC114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD114">
         <v>20</v>
       </c>
       <c r="AE114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF114">
         <v>23</v>
       </c>
       <c r="AG114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH114">
         <v>19</v>
       </c>
       <c r="AI114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ114">
         <v>462</v>
       </c>
       <c r="AK114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.2">
@@ -11025,10 +11025,10 @@
         <v>551</v>
       </c>
       <c r="AK115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
@@ -11093,10 +11093,10 @@
         <v>499</v>
       </c>
       <c r="AK116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.2">
@@ -11161,10 +11161,10 @@
         <v>460</v>
       </c>
       <c r="AK117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.2">
@@ -11229,10 +11229,10 @@
         <v>544</v>
       </c>
       <c r="AK118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.2">
@@ -11297,10 +11297,10 @@
         <v>596</v>
       </c>
       <c r="AK119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.2">
@@ -11365,10 +11365,10 @@
         <v>565</v>
       </c>
       <c r="AK120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.2">
@@ -11433,10 +11433,10 @@
         <v>596</v>
       </c>
       <c r="AK121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
@@ -11501,10 +11501,10 @@
         <v>572</v>
       </c>
       <c r="AK122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
@@ -11569,10 +11569,10 @@
         <v>553</v>
       </c>
       <c r="AK123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
@@ -11589,106 +11589,106 @@
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F124">
         <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H124">
         <v>40</v>
       </c>
       <c r="I124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J124">
         <v>40</v>
       </c>
       <c r="K124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L124">
         <v>17</v>
       </c>
       <c r="M124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N124">
         <v>37</v>
       </c>
       <c r="O124" t="s">
+        <v>215</v>
+      </c>
+      <c r="P124">
+        <v>21</v>
+      </c>
+      <c r="Q124" t="s">
         <v>216</v>
       </c>
-      <c r="P124">
-        <v>21</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>217</v>
-      </c>
       <c r="R124">
         <v>20</v>
       </c>
       <c r="S124" t="s">
+        <v>215</v>
+      </c>
+      <c r="T124">
+        <v>20</v>
+      </c>
+      <c r="U124" t="s">
+        <v>215</v>
+      </c>
+      <c r="V124">
+        <v>21</v>
+      </c>
+      <c r="W124" t="s">
         <v>216</v>
-      </c>
-      <c r="T124">
-        <v>20</v>
-      </c>
-      <c r="U124" t="s">
-        <v>216</v>
-      </c>
-      <c r="V124">
-        <v>21</v>
-      </c>
-      <c r="W124" t="s">
-        <v>217</v>
       </c>
       <c r="X124">
         <v>16</v>
       </c>
       <c r="Y124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z124">
         <v>47</v>
       </c>
       <c r="AA124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB124">
         <v>19</v>
       </c>
       <c r="AC124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD124">
         <v>19</v>
       </c>
       <c r="AE124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF124">
         <v>14</v>
       </c>
       <c r="AG124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH124">
         <v>17</v>
       </c>
       <c r="AI124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ124">
         <v>409</v>
       </c>
       <c r="AK124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.2">
@@ -11753,10 +11753,10 @@
         <v>519</v>
       </c>
       <c r="AK125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
@@ -11821,10 +11821,10 @@
         <v>588</v>
       </c>
       <c r="AK126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -11889,10 +11889,10 @@
         <v>507</v>
       </c>
       <c r="AK127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -11957,10 +11957,10 @@
         <v>552</v>
       </c>
       <c r="AK128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.2">
@@ -12025,10 +12025,10 @@
         <v>508</v>
       </c>
       <c r="AK129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:38" x14ac:dyDescent="0.2">
@@ -12093,10 +12093,10 @@
         <v>512</v>
       </c>
       <c r="AK130" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL130" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.2">
@@ -12113,106 +12113,106 @@
         <v>42</v>
       </c>
       <c r="E131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F131">
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H131">
         <v>41</v>
       </c>
       <c r="I131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J131">
         <v>40</v>
       </c>
       <c r="K131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L131">
         <v>19</v>
       </c>
       <c r="M131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N131">
         <v>39</v>
       </c>
       <c r="O131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P131">
         <v>26</v>
       </c>
       <c r="Q131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R131">
         <v>17</v>
       </c>
       <c r="S131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T131">
         <v>20</v>
       </c>
       <c r="U131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V131">
         <v>13</v>
       </c>
       <c r="W131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X131">
         <v>18</v>
       </c>
       <c r="Y131" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z131">
+        <v>23</v>
+      </c>
+      <c r="AA131" t="s">
         <v>216</v>
-      </c>
-      <c r="Z131">
-        <v>23</v>
-      </c>
-      <c r="AA131" t="s">
-        <v>217</v>
       </c>
       <c r="AB131">
         <v>17</v>
       </c>
       <c r="AC131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD131">
         <v>19</v>
       </c>
       <c r="AE131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF131">
         <v>24</v>
       </c>
       <c r="AG131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH131">
         <v>18</v>
       </c>
       <c r="AI131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ131">
         <v>396</v>
       </c>
       <c r="AK131" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.2">
@@ -12277,10 +12277,10 @@
         <v>502</v>
       </c>
       <c r="AK132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
@@ -12297,106 +12297,106 @@
         <v>55</v>
       </c>
       <c r="E133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F133">
         <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H133">
         <v>41</v>
       </c>
       <c r="I133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J133">
         <v>56</v>
       </c>
       <c r="K133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L133">
         <v>19</v>
       </c>
       <c r="M133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N133">
         <v>39</v>
       </c>
       <c r="O133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P133">
         <v>30</v>
       </c>
       <c r="Q133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R133">
         <v>19</v>
       </c>
       <c r="S133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T133">
         <v>20</v>
       </c>
       <c r="U133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V133">
         <v>33</v>
       </c>
       <c r="W133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X133">
         <v>17</v>
       </c>
       <c r="Y133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z133">
         <v>54</v>
       </c>
       <c r="AA133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB133">
         <v>20</v>
       </c>
       <c r="AC133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD133">
         <v>20</v>
       </c>
       <c r="AE133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF133">
         <v>27</v>
       </c>
       <c r="AG133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH133">
         <v>18</v>
       </c>
       <c r="AI133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ133">
         <v>489</v>
       </c>
       <c r="AK133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.2">
@@ -12413,106 +12413,106 @@
         <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F134">
         <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H134">
         <v>46</v>
       </c>
       <c r="I134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J134">
         <v>26</v>
       </c>
       <c r="K134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L134">
         <v>19</v>
       </c>
       <c r="M134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N134">
         <v>39</v>
       </c>
       <c r="O134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P134">
         <v>17</v>
       </c>
       <c r="Q134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R134">
         <v>23</v>
       </c>
       <c r="S134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T134">
         <v>23</v>
       </c>
       <c r="U134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V134">
         <v>44</v>
       </c>
       <c r="W134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X134">
         <v>18</v>
       </c>
       <c r="Y134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z134">
         <v>46</v>
       </c>
       <c r="AA134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB134">
         <v>22</v>
       </c>
       <c r="AC134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD134">
         <v>20</v>
       </c>
       <c r="AE134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF134">
         <v>28</v>
       </c>
       <c r="AG134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH134">
         <v>18</v>
       </c>
       <c r="AI134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ134">
         <v>455</v>
       </c>
       <c r="AK134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.2">
@@ -12529,106 +12529,106 @@
         <v>58</v>
       </c>
       <c r="E135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F135">
         <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H135">
         <v>42</v>
       </c>
       <c r="I135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J135">
         <v>45</v>
       </c>
       <c r="K135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L135">
         <v>22</v>
       </c>
       <c r="M135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N135">
         <v>39</v>
       </c>
       <c r="O135" t="s">
+        <v>215</v>
+      </c>
+      <c r="P135">
+        <v>40</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>215</v>
+      </c>
+      <c r="R135">
+        <v>21</v>
+      </c>
+      <c r="S135" t="s">
+        <v>215</v>
+      </c>
+      <c r="T135">
+        <v>21</v>
+      </c>
+      <c r="U135" t="s">
+        <v>215</v>
+      </c>
+      <c r="V135">
+        <v>20</v>
+      </c>
+      <c r="W135" t="s">
         <v>216</v>
       </c>
-      <c r="P135">
-        <v>40</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>216</v>
-      </c>
-      <c r="R135">
-        <v>21</v>
-      </c>
-      <c r="S135" t="s">
-        <v>216</v>
-      </c>
-      <c r="T135">
-        <v>21</v>
-      </c>
-      <c r="U135" t="s">
-        <v>216</v>
-      </c>
-      <c r="V135">
-        <v>20</v>
-      </c>
-      <c r="W135" t="s">
-        <v>217</v>
-      </c>
       <c r="X135">
         <v>23</v>
       </c>
       <c r="Y135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z135">
         <v>56</v>
       </c>
       <c r="AA135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB135">
         <v>20</v>
       </c>
       <c r="AC135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD135">
         <v>20</v>
       </c>
       <c r="AE135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF135">
         <v>30</v>
       </c>
       <c r="AG135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH135">
         <v>23</v>
       </c>
       <c r="AI135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ135">
         <v>501</v>
       </c>
       <c r="AK135" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.2">
@@ -12645,106 +12645,106 @@
         <v>43</v>
       </c>
       <c r="E136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F136">
         <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H136">
         <v>44</v>
       </c>
       <c r="I136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J136">
         <v>43</v>
       </c>
       <c r="K136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L136">
         <v>23</v>
       </c>
       <c r="M136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N136">
         <v>38</v>
       </c>
       <c r="O136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P136">
         <v>42</v>
       </c>
       <c r="Q136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R136">
         <v>23</v>
       </c>
       <c r="S136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T136">
         <v>22</v>
       </c>
       <c r="U136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V136">
         <v>42</v>
       </c>
       <c r="W136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X136">
         <v>23</v>
       </c>
       <c r="Y136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z136">
         <v>29</v>
       </c>
       <c r="AA136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB136">
         <v>23</v>
       </c>
       <c r="AC136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD136">
         <v>22</v>
       </c>
       <c r="AE136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF136">
         <v>20</v>
       </c>
       <c r="AG136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH136">
         <v>22</v>
       </c>
       <c r="AI136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ136">
         <v>482</v>
       </c>
       <c r="AK136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.2">
@@ -12809,10 +12809,10 @@
         <v>527</v>
       </c>
       <c r="AK137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.2">
@@ -12829,106 +12829,106 @@
         <v>40</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F138">
         <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H138">
         <v>47</v>
       </c>
       <c r="I138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J138">
         <v>40</v>
       </c>
       <c r="K138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L138">
         <v>20</v>
       </c>
       <c r="M138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N138">
         <v>40</v>
       </c>
       <c r="O138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P138">
         <v>19</v>
       </c>
       <c r="Q138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R138">
         <v>20</v>
       </c>
       <c r="S138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T138">
         <v>22</v>
       </c>
       <c r="U138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V138">
         <v>25</v>
       </c>
       <c r="W138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X138">
         <v>23</v>
       </c>
       <c r="Y138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z138">
         <v>26</v>
       </c>
       <c r="AA138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB138">
         <v>23</v>
       </c>
       <c r="AC138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD138">
         <v>22</v>
       </c>
       <c r="AE138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF138">
         <v>21</v>
       </c>
       <c r="AG138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH138">
         <v>20</v>
       </c>
       <c r="AI138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ138">
         <v>428</v>
       </c>
       <c r="AK138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.2">
@@ -12993,10 +12993,10 @@
         <v>517</v>
       </c>
       <c r="AK139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.2">
@@ -13061,10 +13061,10 @@
         <v>468</v>
       </c>
       <c r="AK140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL140" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:38" x14ac:dyDescent="0.2">
@@ -13129,10 +13129,10 @@
         <v>458</v>
       </c>
       <c r="AK141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:38" x14ac:dyDescent="0.2">
@@ -13149,106 +13149,106 @@
         <v>40</v>
       </c>
       <c r="E142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F142">
         <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H142">
         <v>37</v>
       </c>
       <c r="I142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J142">
         <v>53</v>
       </c>
       <c r="K142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L142">
         <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N142">
         <v>38</v>
       </c>
       <c r="O142" t="s">
+        <v>215</v>
+      </c>
+      <c r="P142">
+        <v>21</v>
+      </c>
+      <c r="Q142" t="s">
         <v>216</v>
-      </c>
-      <c r="P142">
-        <v>21</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>217</v>
       </c>
       <c r="R142">
         <v>18</v>
       </c>
       <c r="S142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T142">
         <v>21</v>
       </c>
       <c r="U142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V142">
         <v>27</v>
       </c>
       <c r="W142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X142">
         <v>19</v>
       </c>
       <c r="Y142" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z142">
+        <v>21</v>
+      </c>
+      <c r="AA142" t="s">
         <v>216</v>
-      </c>
-      <c r="Z142">
-        <v>21</v>
-      </c>
-      <c r="AA142" t="s">
-        <v>217</v>
       </c>
       <c r="AB142">
         <v>18</v>
       </c>
       <c r="AC142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD142">
         <v>18</v>
       </c>
       <c r="AE142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF142">
         <v>26</v>
       </c>
       <c r="AG142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH142">
         <v>18</v>
       </c>
       <c r="AI142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ142">
         <v>413</v>
       </c>
       <c r="AK142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL142" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.2">
@@ -13313,10 +13313,10 @@
         <v>601</v>
       </c>
       <c r="AK143" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL143" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:38" x14ac:dyDescent="0.2">
@@ -13381,10 +13381,10 @@
         <v>522</v>
       </c>
       <c r="AK144" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL144" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
@@ -13401,106 +13401,106 @@
         <v>48</v>
       </c>
       <c r="E145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F145">
         <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H145">
         <v>47</v>
       </c>
       <c r="I145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J145">
         <v>55</v>
       </c>
       <c r="K145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L145">
         <v>23</v>
       </c>
       <c r="M145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N145">
         <v>39</v>
       </c>
       <c r="O145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P145">
         <v>28</v>
       </c>
       <c r="Q145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R145">
         <v>23</v>
       </c>
       <c r="S145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T145">
         <v>23</v>
       </c>
       <c r="U145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V145">
         <v>61</v>
       </c>
       <c r="W145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X145">
         <v>23</v>
       </c>
       <c r="Y145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z145">
         <v>44</v>
       </c>
       <c r="AA145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB145">
         <v>24</v>
       </c>
       <c r="AC145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD145">
         <v>23</v>
       </c>
       <c r="AE145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF145">
         <v>31</v>
       </c>
       <c r="AG145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH145">
         <v>22</v>
       </c>
       <c r="AI145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ145">
         <v>537</v>
       </c>
       <c r="AK145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
@@ -13565,10 +13565,10 @@
         <v>527</v>
       </c>
       <c r="AK146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
@@ -13585,100 +13585,100 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F147">
         <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H147">
         <v>35</v>
       </c>
       <c r="I147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J147">
         <v>40</v>
       </c>
       <c r="K147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L147">
         <v>18</v>
       </c>
       <c r="M147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N147">
         <v>35</v>
       </c>
       <c r="O147" t="s">
+        <v>215</v>
+      </c>
+      <c r="P147">
+        <v>23</v>
+      </c>
+      <c r="Q147" t="s">
         <v>216</v>
-      </c>
-      <c r="P147">
-        <v>23</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>217</v>
       </c>
       <c r="R147">
         <v>15</v>
       </c>
       <c r="S147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T147">
         <v>16</v>
       </c>
       <c r="U147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X147">
         <v>16</v>
       </c>
       <c r="Y147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z147">
         <v>29</v>
       </c>
       <c r="AA147" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB147">
         <v>15</v>
       </c>
       <c r="AC147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD147">
         <v>16</v>
       </c>
       <c r="AE147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF147">
         <v>24</v>
       </c>
       <c r="AG147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH147">
         <v>16</v>
       </c>
       <c r="AI147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ147">
         <v>324</v>
       </c>
       <c r="AK147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
@@ -13695,106 +13695,106 @@
         <v>45</v>
       </c>
       <c r="E148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F148">
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H148">
         <v>40</v>
       </c>
       <c r="I148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J148">
         <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L148">
         <v>17</v>
       </c>
       <c r="M148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N148">
         <v>36</v>
       </c>
       <c r="O148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P148">
         <v>42</v>
       </c>
       <c r="Q148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R148">
         <v>18</v>
       </c>
       <c r="S148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T148">
         <v>20</v>
       </c>
       <c r="U148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V148">
         <v>19</v>
       </c>
       <c r="W148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X148">
         <v>17</v>
       </c>
       <c r="Y148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z148">
         <v>44</v>
       </c>
       <c r="AA148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB148">
         <v>19</v>
       </c>
       <c r="AC148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD148">
         <v>17</v>
       </c>
       <c r="AE148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF148">
         <v>31</v>
       </c>
       <c r="AG148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH148">
         <v>17</v>
       </c>
       <c r="AI148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ148">
         <v>448</v>
       </c>
       <c r="AK148" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL148" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
@@ -13811,106 +13811,106 @@
         <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F149">
         <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H149">
         <v>35</v>
       </c>
       <c r="I149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J149">
         <v>43</v>
       </c>
       <c r="K149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L149">
         <v>18</v>
       </c>
       <c r="M149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N149">
         <v>37</v>
       </c>
       <c r="O149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P149">
         <v>11</v>
       </c>
       <c r="Q149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R149">
         <v>17</v>
       </c>
       <c r="S149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T149">
         <v>21</v>
       </c>
       <c r="U149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V149">
         <v>28</v>
       </c>
       <c r="W149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X149">
         <v>17</v>
       </c>
       <c r="Y149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z149">
         <v>50</v>
       </c>
       <c r="AA149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB149">
         <v>15</v>
       </c>
       <c r="AC149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD149">
         <v>20</v>
       </c>
       <c r="AE149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF149">
         <v>27</v>
       </c>
       <c r="AG149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH149">
         <v>17</v>
       </c>
       <c r="AI149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ149">
         <v>414</v>
       </c>
       <c r="AK149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
@@ -13927,94 +13927,94 @@
         <v>40</v>
       </c>
       <c r="E150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F150">
         <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H150">
         <v>41</v>
       </c>
       <c r="I150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J150">
         <v>58</v>
       </c>
       <c r="K150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L150">
         <v>23</v>
       </c>
       <c r="M150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N150">
         <v>38</v>
       </c>
       <c r="O150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P150">
         <v>44</v>
       </c>
       <c r="Q150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R150">
         <v>20</v>
       </c>
       <c r="S150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T150">
         <v>21</v>
       </c>
       <c r="U150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X150">
         <v>20</v>
       </c>
       <c r="Y150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB150">
         <v>23</v>
       </c>
       <c r="AC150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD150">
         <v>20</v>
       </c>
       <c r="AE150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF150">
         <v>27</v>
       </c>
       <c r="AG150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH150">
         <v>23</v>
       </c>
       <c r="AI150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ150">
         <v>418</v>
       </c>
       <c r="AK150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL150" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
@@ -14031,94 +14031,94 @@
         <v>53</v>
       </c>
       <c r="E151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F151">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H151">
         <v>38</v>
       </c>
       <c r="I151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L151">
         <v>18</v>
       </c>
       <c r="M151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N151">
         <v>42</v>
       </c>
       <c r="O151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R151">
         <v>18</v>
       </c>
       <c r="S151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T151">
         <v>19</v>
       </c>
       <c r="U151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V151">
         <v>42</v>
       </c>
       <c r="W151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X151">
         <v>16</v>
       </c>
       <c r="Y151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z151">
         <v>43</v>
       </c>
       <c r="AA151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB151">
         <v>18</v>
       </c>
       <c r="AC151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD151">
         <v>14</v>
       </c>
       <c r="AE151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF151">
         <v>25</v>
       </c>
       <c r="AG151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH151">
         <v>16</v>
       </c>
       <c r="AI151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ151">
         <v>380</v>
       </c>
       <c r="AK151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
@@ -14135,106 +14135,106 @@
         <v>49</v>
       </c>
       <c r="E152" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F152">
         <v>23</v>
       </c>
       <c r="G152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H152">
         <v>36</v>
       </c>
       <c r="I152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J152">
         <v>40</v>
       </c>
       <c r="K152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L152">
         <v>23</v>
       </c>
       <c r="M152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N152">
         <v>44</v>
       </c>
       <c r="O152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P152">
         <v>12</v>
       </c>
       <c r="Q152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R152">
         <v>23</v>
       </c>
       <c r="S152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T152">
         <v>19</v>
       </c>
       <c r="U152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V152">
         <v>56</v>
       </c>
       <c r="W152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X152">
         <v>23</v>
       </c>
       <c r="Y152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z152">
         <v>40</v>
       </c>
       <c r="AA152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB152">
         <v>23</v>
       </c>
       <c r="AC152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD152">
         <v>19</v>
       </c>
       <c r="AE152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF152">
         <v>25</v>
       </c>
       <c r="AG152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH152">
         <v>23</v>
       </c>
       <c r="AI152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ152">
         <v>478</v>
       </c>
       <c r="AK152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
@@ -14251,100 +14251,100 @@
         <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F153">
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H153">
         <v>35</v>
       </c>
       <c r="I153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J153">
         <v>55</v>
       </c>
       <c r="K153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L153">
         <v>19</v>
       </c>
       <c r="M153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N153">
         <v>34</v>
       </c>
       <c r="O153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P153">
         <v>40</v>
       </c>
       <c r="Q153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R153">
         <v>12</v>
       </c>
       <c r="S153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T153">
         <v>17</v>
       </c>
       <c r="U153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X153">
         <v>19</v>
       </c>
       <c r="Y153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z153">
         <v>40</v>
       </c>
       <c r="AA153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB153">
         <v>12</v>
       </c>
       <c r="AC153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD153">
         <v>15</v>
       </c>
       <c r="AE153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF153">
         <v>34</v>
       </c>
       <c r="AG153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH153">
         <v>20</v>
       </c>
       <c r="AI153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ153">
         <v>405</v>
       </c>
       <c r="AK153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
@@ -14361,106 +14361,106 @@
         <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F154">
         <v>21</v>
       </c>
       <c r="G154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H154">
         <v>43</v>
       </c>
       <c r="I154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J154">
         <v>40</v>
       </c>
       <c r="K154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L154">
         <v>19</v>
       </c>
       <c r="M154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N154">
         <v>18</v>
       </c>
       <c r="O154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P154">
         <v>40</v>
       </c>
       <c r="Q154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R154">
         <v>21</v>
       </c>
       <c r="S154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T154">
         <v>23</v>
       </c>
       <c r="U154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V154">
         <v>42</v>
       </c>
       <c r="W154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X154">
         <v>23</v>
       </c>
       <c r="Y154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z154">
         <v>50</v>
       </c>
       <c r="AA154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB154">
         <v>20</v>
       </c>
       <c r="AC154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD154">
         <v>19</v>
       </c>
       <c r="AE154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF154">
         <v>23</v>
       </c>
       <c r="AG154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH154">
         <v>22</v>
       </c>
       <c r="AI154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ154">
         <v>430</v>
       </c>
       <c r="AK154" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL154" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
@@ -14477,19 +14477,19 @@
         <v>40</v>
       </c>
       <c r="E155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F155">
         <v>23</v>
       </c>
       <c r="G155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H155">
         <v>44</v>
       </c>
       <c r="I155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J155">
         <v>46</v>
@@ -14498,13 +14498,13 @@
         <v>23</v>
       </c>
       <c r="M155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N155">
         <v>46</v>
       </c>
       <c r="O155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P155">
         <v>45</v>
@@ -14513,13 +14513,13 @@
         <v>23</v>
       </c>
       <c r="S155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T155">
         <v>23</v>
       </c>
       <c r="U155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V155">
         <v>40</v>
@@ -14528,46 +14528,46 @@
         <v>23</v>
       </c>
       <c r="Y155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z155">
         <v>41</v>
       </c>
       <c r="AA155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB155">
         <v>23</v>
       </c>
       <c r="AC155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD155">
         <v>20</v>
       </c>
       <c r="AE155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF155">
         <v>26</v>
       </c>
       <c r="AG155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH155">
         <v>23</v>
       </c>
       <c r="AI155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ155">
         <v>509</v>
       </c>
       <c r="AK155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
@@ -14584,88 +14584,88 @@
         <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F156">
         <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H156">
         <v>40</v>
       </c>
       <c r="I156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J156">
         <v>57</v>
       </c>
       <c r="K156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L156">
         <v>16</v>
       </c>
       <c r="M156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N156">
         <v>37</v>
       </c>
       <c r="O156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R156">
         <v>20</v>
       </c>
       <c r="S156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T156">
         <v>20</v>
       </c>
       <c r="U156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X156">
         <v>18</v>
       </c>
       <c r="Y156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB156">
         <v>18</v>
       </c>
       <c r="AC156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD156">
         <v>19</v>
       </c>
       <c r="AE156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF156">
         <v>22</v>
       </c>
       <c r="AG156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH156">
         <v>20</v>
       </c>
       <c r="AI156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ156">
         <v>311</v>
       </c>
       <c r="AK156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL156" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
@@ -14676,112 +14676,112 @@
         <v>235356</v>
       </c>
       <c r="C157" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="D157">
         <v>44</v>
       </c>
       <c r="E157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F157">
         <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H157">
         <v>41</v>
       </c>
       <c r="I157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J157">
         <v>50</v>
       </c>
       <c r="K157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L157">
         <v>20</v>
       </c>
       <c r="M157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N157">
         <v>47</v>
       </c>
       <c r="O157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P157">
         <v>45</v>
       </c>
       <c r="Q157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R157">
         <v>20</v>
       </c>
       <c r="S157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T157">
         <v>21</v>
       </c>
       <c r="U157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V157">
         <v>34</v>
       </c>
       <c r="W157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X157">
         <v>20</v>
       </c>
       <c r="Y157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z157">
         <v>48</v>
       </c>
       <c r="AA157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB157">
         <v>20</v>
       </c>
       <c r="AC157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD157">
         <v>20</v>
       </c>
       <c r="AE157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF157">
         <v>39</v>
       </c>
       <c r="AG157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH157">
         <v>20</v>
       </c>
       <c r="AI157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ157">
         <v>509</v>
       </c>
       <c r="AK157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
@@ -14792,106 +14792,106 @@
         <v>235357</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D158">
         <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F158">
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H158">
         <v>38</v>
       </c>
       <c r="I158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J158">
         <v>40</v>
       </c>
       <c r="K158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L158">
         <v>22</v>
       </c>
       <c r="M158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N158">
         <v>43</v>
       </c>
       <c r="O158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R158">
         <v>20</v>
       </c>
       <c r="S158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T158">
         <v>20</v>
       </c>
       <c r="U158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V158">
         <v>6</v>
       </c>
       <c r="W158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X158">
         <v>22</v>
       </c>
       <c r="Y158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z158">
         <v>40</v>
       </c>
       <c r="AA158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB158">
         <v>22</v>
       </c>
       <c r="AC158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD158">
         <v>19</v>
       </c>
       <c r="AE158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF158">
         <v>33</v>
       </c>
       <c r="AG158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH158">
         <v>21</v>
       </c>
       <c r="AI158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ158">
         <v>412</v>
       </c>
       <c r="AK158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
@@ -14902,112 +14902,112 @@
         <v>235358</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D159">
         <v>48</v>
       </c>
       <c r="E159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F159">
         <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H159">
         <v>40</v>
       </c>
       <c r="I159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J159">
         <v>52</v>
       </c>
       <c r="K159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L159">
         <v>19</v>
       </c>
       <c r="M159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N159">
         <v>38</v>
       </c>
       <c r="O159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P159">
         <v>31</v>
       </c>
       <c r="Q159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R159">
         <v>21</v>
       </c>
       <c r="S159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T159">
         <v>20</v>
       </c>
       <c r="U159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V159">
         <v>56</v>
       </c>
       <c r="W159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X159">
         <v>16</v>
       </c>
       <c r="Y159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z159">
         <v>40</v>
       </c>
       <c r="AA159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB159">
         <v>19</v>
       </c>
       <c r="AC159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD159">
         <v>15</v>
       </c>
       <c r="AE159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF159">
         <v>25</v>
       </c>
       <c r="AG159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH159">
         <v>17</v>
       </c>
       <c r="AI159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ159">
         <v>478</v>
       </c>
       <c r="AK159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
@@ -15018,43 +15018,43 @@
         <v>235359</v>
       </c>
       <c r="C160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D160">
         <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F160">
         <v>23</v>
       </c>
       <c r="G160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H160">
         <v>42</v>
       </c>
       <c r="I160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J160">
         <v>40</v>
       </c>
       <c r="K160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L160">
         <v>22</v>
       </c>
       <c r="M160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N160">
         <v>42</v>
       </c>
       <c r="O160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P160">
         <v>40</v>
@@ -15063,64 +15063,64 @@
         <v>20</v>
       </c>
       <c r="S160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T160">
         <v>21</v>
       </c>
       <c r="U160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V160">
         <v>55</v>
       </c>
       <c r="W160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X160">
         <v>23</v>
       </c>
       <c r="Y160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z160">
         <v>42</v>
       </c>
       <c r="AA160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB160">
         <v>23</v>
       </c>
       <c r="AC160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD160">
         <v>23</v>
       </c>
       <c r="AE160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF160">
         <v>34</v>
       </c>
       <c r="AG160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH160">
         <v>23</v>
       </c>
       <c r="AI160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ160">
         <v>513</v>
       </c>
       <c r="AK160" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL160" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.2">
@@ -15131,112 +15131,112 @@
         <v>235360</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D161">
         <v>42</v>
       </c>
       <c r="E161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F161">
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H161">
         <v>44</v>
       </c>
       <c r="I161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J161">
         <v>53</v>
       </c>
       <c r="K161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L161">
         <v>16</v>
       </c>
       <c r="M161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N161">
         <v>35</v>
       </c>
       <c r="O161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P161">
         <v>45</v>
       </c>
       <c r="Q161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R161">
         <v>21</v>
       </c>
       <c r="S161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T161">
         <v>21</v>
       </c>
       <c r="U161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V161">
         <v>18</v>
       </c>
       <c r="W161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X161">
         <v>17</v>
       </c>
       <c r="Y161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z161">
         <v>40</v>
       </c>
       <c r="AA161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB161">
         <v>18</v>
       </c>
       <c r="AC161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD161">
         <v>18</v>
       </c>
       <c r="AE161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF161">
         <v>20</v>
       </c>
       <c r="AG161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH161">
         <v>17</v>
       </c>
       <c r="AI161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ161">
         <v>447</v>
       </c>
       <c r="AK161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL161" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.2">
@@ -15247,76 +15247,76 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F162">
         <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H162">
         <v>43</v>
       </c>
       <c r="I162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L162">
         <v>19</v>
       </c>
       <c r="M162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N162">
         <v>37</v>
       </c>
       <c r="O162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R162">
         <v>20</v>
       </c>
       <c r="S162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T162">
         <v>22</v>
       </c>
       <c r="U162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X162">
         <v>23</v>
       </c>
       <c r="Y162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB162">
         <v>20</v>
       </c>
       <c r="AC162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD162">
         <v>20</v>
       </c>
       <c r="AE162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH162">
         <v>23</v>
       </c>
       <c r="AI162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ162">
         <v>247</v>
       </c>
       <c r="AK162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL162" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.2">
@@ -15327,88 +15327,88 @@
         <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F163">
         <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H163">
         <v>42</v>
       </c>
       <c r="I163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J163">
         <v>40</v>
       </c>
       <c r="K163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L163">
         <v>18</v>
       </c>
       <c r="M163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N163">
         <v>36</v>
       </c>
       <c r="O163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P163">
         <v>17</v>
       </c>
       <c r="Q163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R163">
         <v>17</v>
       </c>
       <c r="S163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T163">
         <v>22</v>
       </c>
       <c r="U163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X163">
         <v>17</v>
       </c>
       <c r="Y163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB163">
         <v>15</v>
       </c>
       <c r="AC163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD163">
         <v>20</v>
       </c>
       <c r="AE163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH163">
         <v>19</v>
       </c>
       <c r="AI163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ163">
         <v>283</v>
       </c>
       <c r="AK163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL163" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.2">
@@ -15419,112 +15419,112 @@
         <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D164">
         <v>42</v>
       </c>
       <c r="E164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F164">
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H164">
         <v>40</v>
       </c>
       <c r="I164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J164">
         <v>46</v>
       </c>
       <c r="K164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L164">
         <v>21</v>
       </c>
       <c r="M164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N164">
         <v>36</v>
       </c>
       <c r="O164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P164">
         <v>30</v>
       </c>
       <c r="Q164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R164">
         <v>19</v>
       </c>
       <c r="S164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T164">
         <v>20</v>
       </c>
       <c r="U164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V164">
         <v>28</v>
       </c>
       <c r="W164" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X164">
         <v>23</v>
       </c>
       <c r="Y164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z164">
         <v>41</v>
       </c>
       <c r="AA164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB164">
         <v>21</v>
       </c>
       <c r="AC164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD164">
         <v>21</v>
       </c>
       <c r="AE164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF164">
         <v>24</v>
       </c>
       <c r="AG164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH164">
         <v>17</v>
       </c>
       <c r="AI164" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ164">
         <v>450</v>
       </c>
       <c r="AK164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.2">
@@ -15535,112 +15535,112 @@
         <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D165">
         <v>28</v>
       </c>
       <c r="E165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F165">
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H165">
         <v>40</v>
       </c>
       <c r="I165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J165">
         <v>40</v>
       </c>
       <c r="K165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L165">
         <v>19</v>
       </c>
       <c r="M165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N165">
         <v>36</v>
       </c>
       <c r="O165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P165">
         <v>40</v>
       </c>
       <c r="Q165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R165">
         <v>21</v>
       </c>
       <c r="S165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T165">
         <v>21</v>
       </c>
       <c r="U165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V165">
         <v>11</v>
       </c>
       <c r="W165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X165">
         <v>18</v>
       </c>
       <c r="Y165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z165">
         <v>15</v>
       </c>
       <c r="AA165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB165">
         <v>20</v>
       </c>
       <c r="AC165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD165">
         <v>20</v>
       </c>
       <c r="AE165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF165">
         <v>25</v>
       </c>
       <c r="AG165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH165">
         <v>16</v>
       </c>
       <c r="AI165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ165">
         <v>391</v>
       </c>
       <c r="AK165" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.2">
@@ -15651,112 +15651,112 @@
         <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D166">
         <v>49</v>
       </c>
       <c r="E166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F166">
         <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H166">
         <v>43</v>
       </c>
       <c r="I166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J166">
         <v>40</v>
       </c>
       <c r="K166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L166">
         <v>19</v>
       </c>
       <c r="M166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N166">
         <v>36</v>
       </c>
       <c r="O166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P166">
         <v>31</v>
       </c>
       <c r="Q166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R166">
         <v>19</v>
       </c>
       <c r="S166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T166">
         <v>20</v>
       </c>
       <c r="U166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V166">
         <v>40</v>
       </c>
       <c r="W166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X166">
         <v>19</v>
       </c>
       <c r="Y166" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z166">
+        <v>23</v>
+      </c>
+      <c r="AA166" t="s">
         <v>216</v>
       </c>
-      <c r="Z166">
-        <v>23</v>
-      </c>
-      <c r="AA166" t="s">
-        <v>217</v>
-      </c>
       <c r="AB166">
         <v>20</v>
       </c>
       <c r="AC166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD166">
         <v>20</v>
       </c>
       <c r="AE166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF166">
         <v>21</v>
       </c>
       <c r="AG166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH166">
         <v>17</v>
       </c>
       <c r="AI166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ166">
         <v>436</v>
       </c>
       <c r="AK166" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.2">
@@ -15767,112 +15767,112 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D167">
         <v>49</v>
       </c>
       <c r="E167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F167">
         <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H167">
         <v>41</v>
       </c>
       <c r="I167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J167">
         <v>8</v>
       </c>
       <c r="K167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L167">
         <v>20</v>
       </c>
       <c r="M167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N167">
         <v>37</v>
       </c>
       <c r="O167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P167">
         <v>18</v>
       </c>
       <c r="Q167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R167">
         <v>20</v>
       </c>
       <c r="S167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T167">
         <v>21</v>
       </c>
       <c r="U167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V167">
         <v>6</v>
       </c>
       <c r="W167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X167">
         <v>19</v>
       </c>
       <c r="Y167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z167">
         <v>25</v>
       </c>
       <c r="AA167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB167">
         <v>20</v>
       </c>
       <c r="AC167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD167">
         <v>20</v>
       </c>
       <c r="AE167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF167">
         <v>26</v>
       </c>
       <c r="AG167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH167">
         <v>18</v>
       </c>
       <c r="AI167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ167">
         <v>368</v>
       </c>
       <c r="AK167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL167" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.2">
@@ -15883,7 +15883,7 @@
         <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D168">
         <v>52</v>
@@ -15937,10 +15937,10 @@
         <v>490</v>
       </c>
       <c r="AK168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.2">
@@ -15951,112 +15951,112 @@
         <v>45</v>
       </c>
       <c r="C169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D169">
         <v>40</v>
       </c>
       <c r="E169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F169">
         <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H169">
         <v>37</v>
       </c>
       <c r="I169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J169">
         <v>32</v>
       </c>
       <c r="K169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L169">
         <v>20</v>
       </c>
       <c r="M169" t="s">
+        <v>215</v>
+      </c>
+      <c r="N169">
+        <v>40</v>
+      </c>
+      <c r="O169" t="s">
+        <v>215</v>
+      </c>
+      <c r="P169">
+        <v>20</v>
+      </c>
+      <c r="Q169" t="s">
         <v>216</v>
       </c>
-      <c r="N169">
-        <v>40</v>
-      </c>
-      <c r="O169" t="s">
-        <v>216</v>
-      </c>
-      <c r="P169">
-        <v>20</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>217</v>
-      </c>
       <c r="R169">
         <v>20</v>
       </c>
       <c r="S169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T169">
         <v>20</v>
       </c>
       <c r="U169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V169">
         <v>19</v>
       </c>
       <c r="W169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X169">
         <v>23</v>
       </c>
       <c r="Y169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z169">
         <v>19</v>
       </c>
       <c r="AA169" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB169">
         <v>20</v>
       </c>
       <c r="AC169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD169">
         <v>20</v>
       </c>
       <c r="AE169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF169">
         <v>20</v>
       </c>
       <c r="AG169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH169">
         <v>18</v>
       </c>
       <c r="AI169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ169">
         <v>388</v>
       </c>
       <c r="AK169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL169" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.2">
@@ -16067,106 +16067,106 @@
         <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D170">
         <v>40</v>
       </c>
       <c r="E170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F170">
         <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H170">
         <v>40</v>
       </c>
       <c r="I170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J170">
         <v>47</v>
       </c>
       <c r="K170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L170">
         <v>19</v>
       </c>
       <c r="M170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N170">
         <v>37</v>
       </c>
       <c r="O170" t="s">
+        <v>215</v>
+      </c>
+      <c r="R170">
+        <v>20</v>
+      </c>
+      <c r="S170" t="s">
+        <v>215</v>
+      </c>
+      <c r="T170">
+        <v>20</v>
+      </c>
+      <c r="U170" t="s">
+        <v>215</v>
+      </c>
+      <c r="V170">
+        <v>21</v>
+      </c>
+      <c r="W170" t="s">
         <v>216</v>
-      </c>
-      <c r="R170">
-        <v>20</v>
-      </c>
-      <c r="S170" t="s">
-        <v>216</v>
-      </c>
-      <c r="T170">
-        <v>20</v>
-      </c>
-      <c r="U170" t="s">
-        <v>216</v>
-      </c>
-      <c r="V170">
-        <v>21</v>
-      </c>
-      <c r="W170" t="s">
-        <v>217</v>
       </c>
       <c r="X170">
         <v>17</v>
       </c>
       <c r="Y170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z170">
         <v>40</v>
       </c>
       <c r="AA170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB170">
         <v>20</v>
       </c>
       <c r="AC170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD170">
         <v>20</v>
       </c>
       <c r="AE170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF170">
         <v>24</v>
       </c>
       <c r="AG170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH170">
         <v>18</v>
       </c>
       <c r="AI170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ170">
         <v>403</v>
       </c>
       <c r="AK170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
